--- a/gitBranches/testMain/identifiers/excel_output/BackgroundDatabases.xlsx
+++ b/gitBranches/testMain/identifiers/excel_output/BackgroundDatabases.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,6 +437,7 @@
     <col width="28" customWidth="1" min="1" max="1"/>
     <col width="30" customWidth="1" min="2" max="2"/>
     <col width="38" customWidth="1" min="3" max="3"/>
+    <col width="9" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -453,6 +454,11 @@
       <c r="C1" s="1" t="inlineStr">
         <is>
           <t>UUID</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>version</t>
         </is>
       </c>
     </row>
@@ -756,7 +762,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -765,7 +771,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="27" customWidth="1" min="1" max="1"/>
-    <col width="41" customWidth="1" min="2" max="2"/>
+    <col width="46" customWidth="1" min="2" max="2"/>
     <col width="38" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
@@ -1177,6 +1183,23 @@
         </is>
       </c>
     </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Edition 2024</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Sphera MLC (fka GaBi) Databases Edition 2024</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>7443b962-0446-4d69-8aa7-8055a6b1614a</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
